--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F23287-962D-4E31-B194-CCAF945DC650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9188F2-3F36-4ED4-A78E-07770D4C5D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34470" yWindow="2510" windowWidth="25360" windowHeight="11610" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="42870" yWindow="2960" windowWidth="21410" windowHeight="15810" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <definedNames>
     <definedName name="CNY">FX!$B$4</definedName>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="253">
   <si>
     <t>Name</t>
   </si>
@@ -839,6 +840,12 @@
   </si>
   <si>
     <t>ALAB</t>
+  </si>
+  <si>
+    <t>Celestica</t>
+  </si>
+  <si>
+    <t>CLS</t>
   </si>
 </sst>
 </file>
@@ -970,17 +977,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>24706</v>
+            <v>24611</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>43210</v>
+            <v>53691</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>8463</v>
+            <v>8464</v>
           </cell>
         </row>
       </sheetData>
@@ -1137,18 +1144,20 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Sheet1"/>
+      <sheetName val="Presentation"/>
+      <sheetName val="Papers"/>
+      <sheetName val="Glossary"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>247.783086</v>
+            <v>296.83779600000003</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>588.28600000000006</v>
+            <v>1657</v>
           </cell>
         </row>
         <row r="6">
@@ -1159,6 +1168,8 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1257,17 +1268,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="O3">
-            <v>15151</v>
+            <v>15056</v>
           </cell>
         </row>
         <row r="5">
           <cell r="O5">
-            <v>141368</v>
+            <v>132922</v>
           </cell>
         </row>
         <row r="6">
           <cell r="O6">
-            <v>96799</v>
+            <v>98186</v>
           </cell>
         </row>
       </sheetData>
@@ -1284,7 +1295,7 @@
         </row>
         <row r="39">
           <cell r="CE39">
-            <v>158.43568788298469</v>
+            <v>158.7822866043505</v>
           </cell>
         </row>
       </sheetData>
@@ -1319,6 +1330,40 @@
         <row r="6">
           <cell r="K6">
             <v>19330.2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>115.959118</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>423.3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>796.7</v>
           </cell>
         </row>
       </sheetData>
@@ -1905,27 +1950,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="11.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" style="3"/>
+    <col min="10" max="10" width="11.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +2002,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1972,19 +2017,19 @@
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>3353839.5</v>
+        <v>3340943.25</v>
       </c>
       <c r="F3" s="6">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
-        <v>34747</v>
+        <v>45227</v>
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>3319092.5</v>
+        <v>3295716.25</v>
       </c>
       <c r="H3" s="6">
         <f>+[1]Main!$K$3</f>
-        <v>24706</v>
+        <v>24611</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>197</v>
@@ -1996,7 +2041,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -2032,7 +2077,7 @@
         <v>45722</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -2068,7 +2113,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -2106,7 +2151,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
@@ -2117,7 +2162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -2153,7 +2198,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -2192,7 +2237,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -2228,7 +2273,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -2264,7 +2309,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -2300,7 +2345,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -2311,7 +2356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -2322,7 +2367,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -2333,7 +2378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -2344,7 +2389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -2380,7 +2425,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -2416,7 +2461,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -2427,7 +2472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -2438,7 +2483,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -2449,7 +2494,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -2460,7 +2505,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -2471,7 +2516,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -2482,7 +2527,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
@@ -2493,7 +2538,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -2504,7 +2549,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
@@ -2515,7 +2560,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
@@ -2526,7 +2571,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>46</v>
       </c>
@@ -2537,7 +2582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -2548,7 +2593,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
@@ -2559,7 +2604,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>46</v>
       </c>
@@ -2570,7 +2615,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>46</v>
       </c>
@@ -2581,7 +2626,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>46</v>
       </c>
@@ -2592,7 +2637,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>46</v>
       </c>
@@ -2603,7 +2648,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
@@ -2614,7 +2659,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>46</v>
       </c>
@@ -2625,7 +2670,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>46</v>
       </c>
@@ -2636,7 +2681,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>46</v>
       </c>
@@ -2647,7 +2692,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2658,7 +2703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>46</v>
       </c>
@@ -2669,7 +2714,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2680,7 +2725,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2691,7 +2736,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
@@ -2702,7 +2747,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>135</v>
       </c>
@@ -2735,7 +2780,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>137</v>
       </c>
@@ -2768,7 +2813,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>244</v>
       </c>
@@ -2801,17 +2846,17 @@
         <v>45796</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>108</v>
       </c>
@@ -2848,18 +2893,18 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2891,7 +2936,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>139</v>
       </c>
@@ -2909,7 +2954,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
@@ -2921,19 +2966,19 @@
       </c>
       <c r="E4" s="13">
         <f>+D4*H4</f>
-        <v>12636.937386</v>
+        <v>15138.727596000001</v>
       </c>
       <c r="F4" s="13">
         <f>+[14]Main!$J$5-[14]Main!$J$6</f>
-        <v>588.28600000000006</v>
+        <v>1657</v>
       </c>
       <c r="G4" s="13">
         <f>+E4-F4</f>
-        <v>12048.651386</v>
+        <v>13481.727596000001</v>
       </c>
       <c r="H4" s="13">
         <f>+[14]Main!$J$3</f>
-        <v>247.783086</v>
+        <v>296.83779600000003</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>193</v>
@@ -2942,7 +2987,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2975,7 +3020,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>140</v>
       </c>
@@ -2989,7 +3034,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
@@ -3022,7 +3067,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -3033,122 +3078,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>165</v>
       </c>
@@ -3156,132 +3201,132 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>192</v>
       </c>
@@ -3308,13 +3353,13 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="11"/>
+    <col min="4" max="5" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3346,7 +3391,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3363,7 +3408,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3374,7 +3419,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3385,7 +3430,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3396,7 +3441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3407,7 +3452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3418,7 +3463,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3429,7 +3474,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -3452,33 +3497,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="3"/>
+    <col min="9" max="9" width="9.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3525,7 +3570,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3540,19 +3585,19 @@
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>3113682.01</v>
+        <v>3094158.56</v>
       </c>
       <c r="F3" s="6">
         <f>+[17]Main!$O$5-[17]Main!$O$6</f>
-        <v>44569</v>
+        <v>34736</v>
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>3069113.01</v>
+        <v>3059422.56</v>
       </c>
       <c r="H3" s="6">
         <f>+[17]Main!$O$3</f>
-        <v>15151</v>
+        <v>15056</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>197</v>
@@ -3562,11 +3607,11 @@
       </c>
       <c r="K3" s="2">
         <f>[17]Model!$CE$39</f>
-        <v>158.43568788298469</v>
+        <v>158.7822866043505</v>
       </c>
       <c r="L3" s="7">
         <f>+K3/D3-1</f>
-        <v>-0.22906093191093035</v>
+        <v>-0.22737440219770078</v>
       </c>
       <c r="M3" s="8">
         <f>+[17]Model!$CE$36</f>
@@ -3583,7 +3628,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3619,7 +3664,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3644,7 +3689,7 @@
         <v>7630</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -3655,7 +3700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3666,7 +3711,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3677,7 +3722,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3688,7 +3733,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -3699,7 +3744,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -3710,7 +3755,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -3721,7 +3766,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -3732,7 +3777,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -3743,7 +3788,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3754,7 +3799,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -3765,7 +3810,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -3776,7 +3821,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -3787,7 +3832,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -3798,7 +3843,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -3809,7 +3854,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -3820,7 +3865,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3831,7 +3876,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -3842,7 +3887,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -3853,7 +3898,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
@@ -3864,7 +3909,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -3875,7 +3920,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -3886,12 +3931,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>122</v>
       </c>
@@ -3903,19 +3948,19 @@
       </c>
       <c r="E29" s="6">
         <f>+D29*H29</f>
-        <v>9663.5403540000007</v>
+        <v>11576.674044000001</v>
       </c>
       <c r="F29" s="6">
         <f>+[14]Main!$J$5-[14]Main!$J$6</f>
-        <v>588.28600000000006</v>
+        <v>1657</v>
       </c>
       <c r="G29" s="6">
         <f>+E29-F29</f>
-        <v>9075.2543540000006</v>
+        <v>9919.6740440000012</v>
       </c>
       <c r="H29" s="6">
         <f>+[14]Main!$J$3</f>
-        <v>247.783086</v>
+        <v>296.83779600000003</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>129</v>
@@ -3924,7 +3969,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>123</v>
       </c>
@@ -3957,7 +4002,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>126</v>
       </c>
@@ -3965,7 +4010,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>128</v>
       </c>
@@ -3973,7 +4018,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>131</v>
       </c>
@@ -3984,12 +4029,45 @@
         <v>101.64</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="4">
+        <v>247</v>
+      </c>
+      <c r="E34" s="6">
+        <f>+D34*H34</f>
+        <v>28641.902146</v>
+      </c>
+      <c r="F34" s="6">
+        <f>+[19]Main!$I$5-[19]Main!$I$6</f>
+        <v>-373.40000000000003</v>
+      </c>
+      <c r="G34" s="6">
+        <f>+E34-F34</f>
+        <v>29015.302146000002</v>
+      </c>
+      <c r="H34" s="6">
+        <f>+[19]Main!$I$3</f>
+        <v>115.959118</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" s="5">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>65</v>
       </c>
@@ -3997,7 +4075,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>64</v>
       </c>
@@ -4005,7 +4083,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>35</v>
       </c>
@@ -4020,6 +4098,7 @@
     <hyperlink ref="B31" r:id="rId5" xr:uid="{B3FD8109-CF06-4F67-80CA-74CB8FA3899F}"/>
     <hyperlink ref="B32" r:id="rId6" xr:uid="{41CB0E3A-9A33-4B05-90FA-F5D94D41DCCA}"/>
     <hyperlink ref="B4" r:id="rId7" xr:uid="{080EF83F-F30F-4A70-B656-61CF4AB15DF7}"/>
+    <hyperlink ref="B34" r:id="rId8" xr:uid="{0A91E701-42A1-47EB-A9B9-A7A56A386588}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4033,12 +4112,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>194</v>
       </c>
@@ -4046,7 +4125,7 @@
         <v>32.68</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>218</v>
       </c>
@@ -4054,7 +4133,7 @@
         <v>1451.75</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>7</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9188F2-3F36-4ED4-A78E-07770D4C5D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D94FD3-78A0-4BE5-A0C9-E76710B22B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42870" yWindow="2960" windowWidth="21410" windowHeight="15810" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="42210" yWindow="2550" windowWidth="23430" windowHeight="16240" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="255">
   <si>
     <t>Name</t>
   </si>
@@ -443,9 +443,6 @@
     <t>Founded</t>
   </si>
   <si>
-    <t>Q421</t>
-  </si>
-  <si>
     <t>ARM Holdings</t>
   </si>
   <si>
@@ -846,16 +843,26 @@
   </si>
   <si>
     <t>CLS</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>P/E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="[$₩-412]#,##0"/>
     <numFmt numFmtId="166" formatCode="[$¥-804]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0\x"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -907,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -941,6 +948,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1489,21 +1500,21 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>1634</v>
+            <v>1630</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>5281</v>
+            <v>5867</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>1721</v>
+            <v>3218</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1948,13 +1959,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="A2:K51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1981,23 @@
     <col min="10" max="10" width="11.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L1" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2001,8 +2028,44 @@
       <c r="K2" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>2025</v>
+      </c>
+      <c r="M2">
+        <v>2026</v>
+      </c>
+      <c r="N2">
+        <f>+M2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="O2">
+        <f>+N2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="P2">
+        <f>+O2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="Q2">
+        <v>2025</v>
+      </c>
+      <c r="R2">
+        <v>2026</v>
+      </c>
+      <c r="S2">
+        <f>+R2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="T2">
+        <f>+S2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="U2">
+        <f>+T2+1</f>
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -2013,11 +2076,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="4">
-        <v>135.75</v>
+        <v>194</v>
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>3340943.25</v>
+        <v>4774534</v>
       </c>
       <c r="F3" s="6">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
@@ -2025,14 +2088,14 @@
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>3295716.25</v>
+        <v>4729307</v>
       </c>
       <c r="H3" s="6">
         <f>+[1]Main!$K$3</f>
         <v>24611</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J3" s="10">
         <v>45805</v>
@@ -2041,7 +2104,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -2052,11 +2115,11 @@
         <v>26</v>
       </c>
       <c r="D4" s="4">
-        <v>235</v>
+        <v>344</v>
       </c>
       <c r="E4" s="6">
         <f>+D4*H4</f>
-        <v>1136460</v>
+        <v>1663584</v>
       </c>
       <c r="F4" s="6">
         <f>+[2]Main!$J$5-[2]Main!$J$6</f>
@@ -2064,20 +2127,20 @@
       </c>
       <c r="G4" s="6">
         <f>+E4-F4</f>
-        <v>1193732</v>
+        <v>1720856</v>
       </c>
       <c r="H4" s="6">
         <f>+[2]Main!$J$3</f>
         <v>4836</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J4" s="10">
         <v>45722</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -2088,11 +2151,11 @@
         <v>12</v>
       </c>
       <c r="D5" s="4">
-        <v>206</v>
+        <v>300.29000000000002</v>
       </c>
       <c r="E5" s="6">
         <f>+D5*H5/5</f>
-        <v>1068357.2</v>
+        <v>1557363.9980000001</v>
       </c>
       <c r="F5" s="6">
         <f>+[3]Main!$J$7-[3]Main!$J$8</f>
@@ -2100,20 +2163,20 @@
       </c>
       <c r="G5" s="6">
         <f>+E5-F5</f>
-        <v>1031408.2</v>
+        <v>1520414.9980000001</v>
       </c>
       <c r="H5" s="6">
         <f>+[3]Main!$J$4</f>
         <v>25931</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J5" s="10">
         <v>45652</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -2124,11 +2187,11 @@
         <v>22</v>
       </c>
       <c r="D6" s="4">
-        <v>1085</v>
+        <v>1440</v>
       </c>
       <c r="E6" s="6">
         <f>+D6*H6/FX!C2</f>
-        <v>860928.24357405142</v>
+        <v>1142614.4430844553</v>
       </c>
       <c r="F6" s="6">
         <f>+[3]Main!$J$7-[3]Main!$J$8</f>
@@ -2136,7 +2199,7 @@
       </c>
       <c r="G6" s="6">
         <f>+E6-F6</f>
-        <v>823979.24357405142</v>
+        <v>1105665.4430844553</v>
       </c>
       <c r="H6" s="6">
         <f>+[3]Main!$J$4</f>
@@ -2151,7 +2214,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
@@ -2161,8 +2224,11 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="6">
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -2172,12 +2238,12 @@
       <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3">
-        <v>684.78</v>
+      <c r="D8" s="4">
+        <v>983</v>
       </c>
       <c r="E8" s="6">
         <f>+D8*H8</f>
-        <v>269460.93</v>
+        <v>386810.5</v>
       </c>
       <c r="F8" s="6">
         <f>+[4]Main!$L$5-[4]Main!$L$6</f>
@@ -2185,20 +2251,20 @@
       </c>
       <c r="G8" s="6">
         <f>+E8-F8</f>
-        <v>268047.93</v>
+        <v>385397.5</v>
       </c>
       <c r="H8" s="6">
         <f>+[4]Main!$L$3</f>
         <v>393.5</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J8" s="10">
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -2209,35 +2275,51 @@
         <v>8</v>
       </c>
       <c r="D9" s="4">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="E9" s="6">
         <f>+D9*H9</f>
-        <v>233662</v>
+        <v>387940</v>
       </c>
       <c r="F9" s="6">
         <f>+[5]Main!$M$5-[5]Main!$M$6</f>
-        <v>3560</v>
+        <v>2649</v>
       </c>
       <c r="G9" s="6">
         <f>+E9-F9</f>
-        <v>230102</v>
+        <v>385291</v>
       </c>
       <c r="H9" s="6">
         <f>+[5]Main!$M$3</f>
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="J9" s="10">
-        <v>45507</v>
+        <v>45939</v>
       </c>
       <c r="K9">
         <v>1969</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>3.84</v>
+      </c>
+      <c r="M9">
+        <v>6.14</v>
+      </c>
+      <c r="Q9" s="18">
+        <f>+$D9/L9</f>
+        <v>61.979166666666671</v>
+      </c>
+      <c r="R9" s="18">
+        <f>+$D9/M9</f>
+        <v>38.762214983713356</v>
+      </c>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -2267,13 +2349,13 @@
         <v>1114</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="10">
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -2309,7 +2391,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -2339,13 +2421,13 @@
         <v>4267</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J12" s="10">
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -2356,18 +2438,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
         <v>119</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -2378,7 +2460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -2419,7 +2501,7 @@
         <v>1108.841326</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J17" s="10">
         <v>45554</v>
@@ -2430,10 +2512,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" t="s">
         <v>133</v>
-      </c>
-      <c r="C18" t="s">
-        <v>134</v>
       </c>
       <c r="D18" s="4">
         <v>20.65</v>
@@ -2455,7 +2537,7 @@
         <v>640</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J18" s="10">
         <v>45560</v>
@@ -2543,10 +2625,10 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" t="s">
         <v>200</v>
-      </c>
-      <c r="C26" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2554,10 +2636,10 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" t="s">
         <v>202</v>
-      </c>
-      <c r="C27" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2565,10 +2647,10 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" t="s">
         <v>208</v>
-      </c>
-      <c r="C28" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2609,10 +2691,10 @@
         <v>46</v>
       </c>
       <c r="B32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" t="s">
         <v>210</v>
-      </c>
-      <c r="C32" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2631,10 +2713,10 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" t="s">
         <v>212</v>
-      </c>
-      <c r="C34" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2642,10 +2724,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" t="s">
         <v>220</v>
-      </c>
-      <c r="C35" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2653,10 +2735,10 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" t="s">
         <v>222</v>
-      </c>
-      <c r="C36" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2664,10 +2746,10 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" t="s">
         <v>224</v>
-      </c>
-      <c r="C37" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2675,10 +2757,10 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" t="s">
         <v>240</v>
-      </c>
-      <c r="C38" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2686,10 +2768,10 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" t="s">
         <v>242</v>
-      </c>
-      <c r="C39" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2730,10 +2812,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" t="s">
         <v>249</v>
-      </c>
-      <c r="C43" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2749,10 +2831,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
         <v>135</v>
-      </c>
-      <c r="C45" t="s">
-        <v>136</v>
       </c>
       <c r="D45" s="4">
         <v>112</v>
@@ -2774,7 +2856,7 @@
         <v>135.42215899999999</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J45" s="10">
         <v>45561</v>
@@ -2782,10 +2864,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
         <v>137</v>
-      </c>
-      <c r="C46" t="s">
-        <v>138</v>
       </c>
       <c r="D46" s="4">
         <v>13</v>
@@ -2807,7 +2889,7 @@
         <v>811.04812700000002</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J46" s="10">
         <v>45561</v>
@@ -2815,10 +2897,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" t="s">
         <v>244</v>
-      </c>
-      <c r="C47" t="s">
-        <v>245</v>
       </c>
       <c r="D47" s="4">
         <v>23.19</v>
@@ -2840,7 +2922,7 @@
         <v>63.864503999999997</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J47" s="10">
         <v>45796</v>
@@ -2862,6 +2944,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{82B60337-F6F7-4A89-BE21-94E4E4FAE923}"/>
     <hyperlink ref="B11" r:id="rId2" xr:uid="{89BFBE39-15FE-4D88-BD35-419556A195F8}"/>
@@ -2901,7 +2987,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2938,7 +3024,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -2956,10 +3042,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2">
         <v>51</v>
@@ -2981,7 +3067,7 @@
         <v>296.83779600000003</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J4" s="5">
         <v>45664</v>
@@ -2989,10 +3075,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5">
         <v>7.95</v>
@@ -3014,7 +3100,7 @@
         <v>283.54687100000001</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J5" s="5">
         <v>45664</v>
@@ -3022,10 +3108,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
         <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>141</v>
       </c>
       <c r="D6" s="2">
         <v>18</v>
@@ -3036,10 +3122,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2">
         <v>6.45</v>
@@ -3061,7 +3147,7 @@
         <v>286</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J7" s="5">
         <v>45663</v>
@@ -3069,10 +3155,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" t="s">
         <v>195</v>
-      </c>
-      <c r="C8" t="s">
-        <v>196</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -3080,255 +3166,255 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
         <v>165</v>
-      </c>
-      <c r="C34" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3479,10 +3565,10 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" t="s">
         <v>232</v>
-      </c>
-      <c r="C10" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3497,11 +3583,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3520,7 +3606,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -3600,7 +3686,7 @@
         <v>15056</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J3" s="5">
         <v>45750</v>
@@ -3658,7 +3744,7 @@
         <v>6758.9192499999999</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J4" s="5">
         <v>45750</v>
@@ -3749,10 +3835,10 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -3771,7 +3857,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
@@ -3804,10 +3890,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
         <v>204</v>
-      </c>
-      <c r="C16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3815,10 +3901,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" t="s">
         <v>214</v>
-      </c>
-      <c r="C17" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3826,10 +3912,10 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" t="s">
         <v>206</v>
-      </c>
-      <c r="C18" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3837,10 +3923,10 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" t="s">
         <v>216</v>
-      </c>
-      <c r="C19" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3848,10 +3934,10 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" t="s">
         <v>226</v>
-      </c>
-      <c r="C20" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3859,10 +3945,10 @@
         <v>46</v>
       </c>
       <c r="B21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" t="s">
         <v>230</v>
-      </c>
-      <c r="C21" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3870,10 +3956,10 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" t="s">
         <v>234</v>
-      </c>
-      <c r="C22" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3892,10 +3978,10 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" t="s">
         <v>236</v>
-      </c>
-      <c r="C24" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3903,10 +3989,10 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" t="s">
         <v>238</v>
-      </c>
-      <c r="C25" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3914,10 +4000,10 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" t="s">
         <v>247</v>
-      </c>
-      <c r="C26" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3938,10 +4024,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="4">
         <v>39</v>
@@ -3963,7 +4049,7 @@
         <v>296.83779600000003</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J29" s="5">
         <v>45534</v>
@@ -3971,10 +4057,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="3">
         <v>8.51</v>
@@ -3996,7 +4082,7 @@
         <v>283.54687100000001</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J30" s="5">
         <v>45534</v>
@@ -4004,26 +4090,26 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
         <v>131</v>
-      </c>
-      <c r="C33" t="s">
-        <v>132</v>
       </c>
       <c r="D33" s="3">
         <v>101.64</v>
@@ -4031,10 +4117,10 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" t="s">
         <v>251</v>
-      </c>
-      <c r="C34" t="s">
-        <v>252</v>
       </c>
       <c r="D34" s="4">
         <v>247</v>
@@ -4056,7 +4142,7 @@
         <v>115.959118</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J34" s="5">
         <v>45915</v>
@@ -4119,7 +4205,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2">
         <v>32.68</v>
@@ -4127,7 +4213,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" s="2">
         <v>1451.75</v>
@@ -4138,7 +4224,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
